--- a/biology/Botanique/Hibberdiaceae/Hibberdiaceae.xlsx
+++ b/biology/Botanique/Hibberdiaceae/Hibberdiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hibberdiaceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Chrysophyceae et de l'ordre des Hibberdiales[1],[2] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hibberdiaceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Chrysophyceae et de l'ordre des Hibberdiales, .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Hibberdia, qui pourrait être l'éponyme de David John Hibberd (d), botaniste phycologue et protistologiste.
 </t>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand en 1989 Robert Arthur Andersen (d) décrit l'espèce type Hibberdia magna, il y observa « Trois racines flagellaires microtubulaires (R1, R2 et R4) et un rhizoplaste (racine striée)[note 1], mais aucune racine R3 »[2]. Il observa que les corps basaux (en)[note 2] ressemblaient à ceux d'autres groupes d'eucaryotes tels les Xanthophycées (algues jaunes) et les Oomycètes[note 3] mais seul Hibberdia était dépourvu de racine R3. Outre l'appareil flagellaire de H. magna, le processus de division cellulaire et le mode de collecte de la lumières via l'anthéraxanthine étaient suffisamment différents des autres algues pour qu'Anderson procède à la création : du nouveau genre, Hibberdia, de la nouvelle famille des Hibberdiaceae et du nouvel ordre des Hibberdiales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand en 1989 Robert Arthur Andersen (d) décrit l'espèce type Hibberdia magna, il y observa « Trois racines flagellaires microtubulaires (R1, R2 et R4) et un rhizoplaste (racine striée)[note 1], mais aucune racine R3 ». Il observa que les corps basaux (en)[note 2] ressemblaient à ceux d'autres groupes d'eucaryotes tels les Xanthophycées (algues jaunes) et les Oomycètes[note 3] mais seul Hibberdia était dépourvu de racine R3. Outre l'appareil flagellaire de H. magna, le processus de division cellulaire et le mode de collecte de la lumières via l'anthéraxanthine étaient suffisamment différents des autres algues pour qu'Anderson procède à la création : du nouveau genre, Hibberdia, de la nouvelle famille des Hibberdiaceae et du nouvel ordre des Hibberdiales.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (24 janvier 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (24 janvier 2022) :
 Chromophyton Woronin
 Hibberdia R.A.Andersen, 1989</t>
         </is>
